--- a/cbrunner/Parameters/Table_NutrientApp_DataSources.xlsx
+++ b/cbrunner/Parameters/Table_NutrientApp_DataSources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388838CD-6A2A-481C-8DEC-F4A968A60A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D047546-6C93-4A30-ACA1-D2BA624527AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,14 +44,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Experimental responses considered during model parameterization</t>
-  </si>
-  <si>
     <t>The development of source code was facilitated by simplified example calculations for various biophysical processes.</t>
   </si>
   <si>
@@ -61,25 +58,22 @@
     <t>File name</t>
   </si>
   <si>
-    <t>Parameters_NutrientApp.xlsx</t>
-  </si>
-  <si>
-    <t>Workbook_NutrientApp.xlsx</t>
-  </si>
-  <si>
-    <t>LitReview_NutrientApp_ExperimentsDB.xlsx</t>
-  </si>
-  <si>
-    <t>LitReview_NutrientApp_ExperimentsDB_AncillaryTables.xlsx</t>
-  </si>
-  <si>
-    <t>Experimental responses considered during model parameterization (ancillary info)</t>
-  </si>
-  <si>
     <t>Parameters_CostsAndPrices.xlsx</t>
   </si>
   <si>
     <t>Cost and price variables that affect the net revenue generated from nutrient applications</t>
+  </si>
+  <si>
+    <t>Forest Nutrient Addition Experiments DB.xlsx</t>
+  </si>
+  <si>
+    <t>A repository for quantitative experimental responses of forest ecosystem varlables to nutrient application</t>
+  </si>
+  <si>
+    <t>Parameters_NutrientApplication.xlsx</t>
+  </si>
+  <si>
+    <t>Workbook_NutrientApplication.xlsx</t>
   </si>
 </sst>
 </file>
@@ -467,19 +461,19 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="1"/>
-    <col min="2" max="2" width="92.44140625" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -488,102 +482,97 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
